--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adm2-Ramp3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adm2-Ramp3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.164869</v>
+        <v>0.28161</v>
       </c>
       <c r="H2">
-        <v>0.494607</v>
+        <v>0.84483</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -543,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3698900000000001</v>
+        <v>0.4857986666666667</v>
       </c>
       <c r="N2">
-        <v>1.10967</v>
+        <v>1.457396</v>
       </c>
       <c r="O2">
-        <v>0.4523676257945796</v>
+        <v>0.4938122518903432</v>
       </c>
       <c r="P2">
-        <v>0.4523676257945796</v>
+        <v>0.4938122518903432</v>
       </c>
       <c r="Q2">
-        <v>0.06098339441</v>
+        <v>0.13680576252</v>
       </c>
       <c r="R2">
-        <v>0.54885054969</v>
+        <v>1.23125186268</v>
       </c>
       <c r="S2">
-        <v>0.4523676257945796</v>
+        <v>0.4938122518903432</v>
       </c>
       <c r="T2">
-        <v>0.4523676257945796</v>
+        <v>0.4938122518903432</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.164869</v>
+        <v>0.28161</v>
       </c>
       <c r="H3">
-        <v>0.494607</v>
+        <v>0.84483</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,28 +614,90 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.4477856666666666</v>
+        <v>0.4477856666666667</v>
       </c>
       <c r="N3">
         <v>1.343357</v>
       </c>
       <c r="O3">
-        <v>0.5476323742054204</v>
+        <v>0.4551722011468782</v>
       </c>
       <c r="P3">
-        <v>0.5476323742054204</v>
+        <v>0.4551722011468782</v>
       </c>
       <c r="Q3">
-        <v>0.07382597507766665</v>
+        <v>0.12610092159</v>
       </c>
       <c r="R3">
-        <v>0.6644337756989999</v>
+        <v>1.13490829431</v>
       </c>
       <c r="S3">
-        <v>0.5476323742054204</v>
+        <v>0.4551722011468782</v>
       </c>
       <c r="T3">
-        <v>0.5476323742054204</v>
+        <v>0.4551722011468782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.28161</v>
+      </c>
+      <c r="H4">
+        <v>0.84483</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.05018766666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.150563</v>
+      </c>
+      <c r="O4">
+        <v>0.05101554696277864</v>
+      </c>
+      <c r="P4">
+        <v>0.05101554696277864</v>
+      </c>
+      <c r="Q4">
+        <v>0.01413334881</v>
+      </c>
+      <c r="R4">
+        <v>0.12720013929</v>
+      </c>
+      <c r="S4">
+        <v>0.05101554696277864</v>
+      </c>
+      <c r="T4">
+        <v>0.05101554696277864</v>
       </c>
     </row>
   </sheetData>
